--- a/MavenProject1/TestOutput/OutputSheet.xlsx
+++ b/MavenProject1/TestOutput/OutputSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -144,64 +144,61 @@
     <t>Login</t>
   </si>
   <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>Add Employee</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>employeeId</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>searchEmpId</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>empsearch_id</t>
+  </si>
+  <si>
+    <t>Enter employeeId</t>
+  </si>
+  <si>
+    <t>Golla123</t>
+  </si>
+  <si>
+    <t>tableValidation</t>
+  </si>
+  <si>
+    <t>Table Validation</t>
+  </si>
+  <si>
+    <t>//*[@id="menu_pim_viewEmployeeList"]</t>
+  </si>
+  <si>
+    <t>Click on Employee List</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Qedge123!@#</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>linkText</t>
-  </si>
-  <si>
-    <t>PIM</t>
-  </si>
-  <si>
-    <t>Add Employee</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>employeeId</t>
-  </si>
-  <si>
-    <t>Anusha</t>
-  </si>
-  <si>
-    <t>searchEmpId</t>
-  </si>
-  <si>
-    <t>btnSave</t>
-  </si>
-  <si>
-    <t>empsearch_id</t>
-  </si>
-  <si>
-    <t>Enter employeeId</t>
-  </si>
-  <si>
-    <t>Golla123</t>
-  </si>
-  <si>
-    <t>tableValidation</t>
-  </si>
-  <si>
-    <t>Table Validation</t>
-  </si>
-  <si>
-    <t>//*[@id="menu_pim_viewEmployeeList"]</t>
-  </si>
-  <si>
-    <t>Click on Employee List</t>
-  </si>
-  <si>
-    <t>DuplicateEmpIds</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
   </si>
   <si>
     <t>Not Executed</t>
@@ -218,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,18 +238,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -312,12 +297,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
       <b val="true"/>
     </font>
     <font>
@@ -412,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -433,9 +412,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -716,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,41 +723,21 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s" s="11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="22">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +751,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +760,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="40.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,7 +887,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -973,16 +929,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -990,16 +946,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -1007,7 +963,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>24</v>
@@ -1016,15 +972,15 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -1033,15 +989,15 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -1050,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1982</v>
@@ -1058,16 +1014,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1075,7 +1031,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>26</v>
@@ -1084,7 +1040,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1092,7 +1048,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>26</v>
@@ -1101,7 +1057,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1109,10 +1065,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1141,7 +1097,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1106,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="40.140625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,8 +1125,8 @@
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="12">
-        <v>61</v>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row customFormat="1" r="2" s="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,9 +1145,7 @@
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s" s="13">
-        <v>61</v>
-      </c>
+      <c r="F2" s="6"/>
     </row>
     <row customFormat="1" r="3" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1209,9 +1163,7 @@
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s" s="14">
-        <v>61</v>
-      </c>
+      <c r="F3" s="6"/>
     </row>
     <row customFormat="1" r="4" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1229,9 +1181,7 @@
       <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s" s="15">
-        <v>61</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
     <row customFormat="1" r="5" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1249,9 +1199,7 @@
       <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s" s="16">
-        <v>61</v>
-      </c>
+      <c r="F5" s="6"/>
     </row>
     <row customFormat="1" r="6" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1269,9 +1217,7 @@
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s" s="17">
-        <v>61</v>
-      </c>
+      <c r="F6" s="6"/>
     </row>
     <row customFormat="1" r="7" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1287,11 +1233,9 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s" s="18">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row customFormat="1" r="8" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1309,9 +1253,7 @@
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s" s="19">
-        <v>61</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
     <row customFormat="1" r="9" s="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1329,42 +1271,37 @@
       <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s" s="20">
-        <v>61</v>
-      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" t="s" s="21">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -1372,7 +1309,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>24</v>
@@ -1381,15 +1318,15 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -1398,15 +1335,15 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -1415,7 +1352,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1982</v>
@@ -1423,16 +1360,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1440,7 +1377,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>26</v>
@@ -1449,7 +1386,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1457,7 +1394,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>26</v>
@@ -1466,7 +1403,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1474,10 +1411,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1505,7 +1442,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1451,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="15.85546875" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="12.7109375" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="34.28515625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.5703125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="17.7109375" collapsed="false"/>
     <col min="6" max="6" style="6" width="9.140625" collapsed="false"/>
     <col min="7" max="16384" style="4" width="9.140625" collapsed="false"/>
   </cols>
@@ -1535,8 +1472,8 @@
       <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
+      <c r="F1" t="s" s="10">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,6 +1492,9 @@
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="F2" t="s" s="11">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1572,6 +1512,9 @@
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="F3" t="s" s="12">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1589,6 +1532,9 @@
       <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="F4" t="s" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1606,6 +1552,9 @@
       <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="F5" t="s" s="14">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1623,6 +1572,9 @@
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="F6" t="s" s="15">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1638,7 +1590,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="F7" t="s" s="16">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,6 +1612,9 @@
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s" s="17">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1674,6 +1632,9 @@
       <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="F9" t="s" s="18">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1690,6 +1651,9 @@
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="F10" t="s" s="19">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
